--- a/localization_tool/test.xlsx
+++ b/localization_tool/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcho-win10\dev\action-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcho-win10\dev\action-test\localization_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1362CF4-1CC8-4CE4-BD2B-E4772FC7450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD06CB6-4F2F-4A38-88EE-A698570DAAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -109,11 +109,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>티3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅌ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dddd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +481,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -527,7 +527,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/localization_tool/test.xlsx
+++ b/localization_tool/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcho-win10\dev\action-test\localization_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD06CB6-4F2F-4A38-88EE-A698570DAAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07415127-C9C6-44A9-89FC-6B0521CD18A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tt3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>티1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +110,10 @@
   </si>
   <si>
     <t>dddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +481,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -494,51 +494,51 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/localization_tool/test.xlsx
+++ b/localization_tool/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcho-win10\dev\action-test\localization_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07415127-C9C6-44A9-89FC-6B0521CD18A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC221C-3EC8-41D0-A03C-67B18E666C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅌ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +110,10 @@
   </si>
   <si>
     <t>dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +481,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -524,10 +524,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -535,10 +535,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/localization_tool/test.xlsx
+++ b/localization_tool/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcho-win10\dev\action-test\localization_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC221C-3EC8-41D0-A03C-67B18E666C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3863F872-4184-4EB3-808E-D2B099D1F5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅌ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dddd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +110,10 @@
   </si>
   <si>
     <t>aaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나를</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +481,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -524,10 +524,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -535,10 +535,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/localization_tool/test.xlsx
+++ b/localization_tool/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcho-win10\dev\action-test\localization_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3863F872-4184-4EB3-808E-D2B099D1F5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8C4F17-C9FC-45FE-AEDC-F48F12194420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{87D2D12C-A060-4010-86F4-17BA06474C21}"/>
   </bookViews>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +110,10 @@
   </si>
   <si>
     <t>나를</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -524,10 +524,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -535,10 +535,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
